--- a/src/Magicodes.IE.Exporter/wwwroot/test.xlsx
+++ b/src/Magicodes.IE.Exporter/wwwroot/test.xlsx
@@ -164,7 +164,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>43874.59823700231</v>
+        <v>43874.65918380787</v>
       </c>
     </row>
     <row r="3">
@@ -178,7 +178,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>43874.59823700231</v>
+        <v>43874.65918380787</v>
       </c>
     </row>
   </sheetData>
@@ -231,7 +231,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>43874.59823700231</v>
+        <v>43874.65918380787</v>
       </c>
     </row>
   </sheetData>

--- a/src/Magicodes.IE.Exporter/wwwroot/test.xlsx
+++ b/src/Magicodes.IE.Exporter/wwwroot/test.xlsx
@@ -135,8 +135,8 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.855375289916992" customWidth="1"/>
-    <col min="4" max="4" width="13.17652416229248" customWidth="1" style="2"/>
+    <col min="3" max="3" width="15.857142448425293" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -164,7 +164,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>43874.65918380787</v>
+        <v>43875.971607824074</v>
       </c>
     </row>
     <row r="3">
@@ -178,7 +178,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>43874.65918380787</v>
+        <v>43875.971607824074</v>
       </c>
     </row>
   </sheetData>
@@ -202,8 +202,8 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.67838478088379" customWidth="1"/>
-    <col min="4" max="4" width="13.17652416229248" customWidth="1" style="2"/>
+    <col min="3" max="3" width="15.857142448425293" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -231,7 +231,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>43874.65918380787</v>
+        <v>43875.971607824074</v>
       </c>
     </row>
   </sheetData>

--- a/src/Magicodes.IE.Exporter/wwwroot/test.xlsx
+++ b/src/Magicodes.IE.Exporter/wwwroot/test.xlsx
@@ -97,28 +97,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D3">
-  <autoFilter ref="A1:D3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="A1:D10">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="姓名"/>
     <tableColumn id="2" name="年龄"/>
     <tableColumn id="3" name="Remarks"/>
     <tableColumn id="4" name="出生日期"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D2">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:D10">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="姓名"/>
     <tableColumn id="2" name="年龄"/>
     <tableColumn id="3" name="Remarks"/>
     <tableColumn id="4" name="出生日期"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -136,7 +136,7 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15.857142448425293" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1" style="2"/>
+    <col min="4" max="4" width="14.285714149475098" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -164,7 +164,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>43875.971607824074</v>
+        <v>43958.597505185186</v>
       </c>
     </row>
     <row r="3">
@@ -178,7 +178,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>43875.971607824074</v>
+        <v>43958.597505185186</v>
       </c>
     </row>
   </sheetData>
@@ -203,7 +203,7 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15.857142448425293" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1" style="2"/>
+    <col min="4" max="4" width="14.285714149475098" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -231,7 +231,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>43875.971607824074</v>
+        <v>43958.597505185186</v>
       </c>
     </row>
   </sheetData>

--- a/src/Magicodes.IE.Exporter/wwwroot/test.xlsx
+++ b/src/Magicodes.IE.Exporter/wwwroot/test.xlsx
@@ -97,28 +97,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="A1:D10">
-  <autoFilter ref="A1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D3">
+  <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="姓名"/>
     <tableColumn id="2" name="年龄"/>
     <tableColumn id="3" name="Remarks"/>
     <tableColumn id="4" name="出生日期"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:D10">
-  <autoFilter ref="A1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D2">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
     <tableColumn id="1" name="姓名"/>
     <tableColumn id="2" name="年龄"/>
     <tableColumn id="3" name="Remarks"/>
     <tableColumn id="4" name="出生日期"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -135,8 +135,8 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.857142448425293" customWidth="1"/>
-    <col min="4" max="4" width="14.285714149475098" customWidth="1" style="2"/>
+    <col min="3" max="3" width="20.855375289916992" customWidth="1"/>
+    <col min="4" max="4" width="13.17652416229248" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -164,7 +164,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>43958.597505185186</v>
+        <v>44310.89662037037</v>
       </c>
     </row>
     <row r="3">
@@ -178,7 +178,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>43958.597505185186</v>
+        <v>44310.89662037037</v>
       </c>
     </row>
   </sheetData>
@@ -202,8 +202,8 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.857142448425293" customWidth="1"/>
-    <col min="4" max="4" width="14.285714149475098" customWidth="1" style="2"/>
+    <col min="3" max="3" width="20.67838478088379" customWidth="1"/>
+    <col min="4" max="4" width="13.17652416229248" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -231,7 +231,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>43958.597505185186</v>
+        <v>44310.89662037037</v>
       </c>
     </row>
   </sheetData>
